--- a/Wedding/Input/wedding.xlsx
+++ b/Wedding/Input/wedding.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Providers" sheetId="2" r:id="rId2"/>
-    <sheet name="ProviderBranches" sheetId="4" r:id="rId3"/>
-    <sheet name="ddl" sheetId="3" r:id="rId4"/>
+    <sheet name="ProviderBranches" sheetId="5" r:id="rId3"/>
+    <sheet name="ProviderPackages" sheetId="4" r:id="rId4"/>
+    <sheet name="ddl" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="562">
   <si>
     <t>Please spesify list of Categories inside wedding&amp; events catalog (i.e. event planner, dresses, etc)</t>
   </si>
@@ -51,12 +52,6 @@
     <t>About AR</t>
   </si>
   <si>
-    <t>social media</t>
-  </si>
-  <si>
-    <t>Branches (locations)</t>
-  </si>
-  <si>
     <t>Package name EN</t>
   </si>
   <si>
@@ -66,9 +61,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Slogan</t>
-  </si>
-  <si>
     <t>Package Images (1 or more)</t>
   </si>
   <si>
@@ -81,9 +73,6 @@
     <t>Package Details AR</t>
   </si>
   <si>
-    <t>Package Details EN (Ex. Count of people invited + Price + what it Includes)</t>
-  </si>
-  <si>
     <t>Related Category</t>
   </si>
   <si>
@@ -108,9 +97,6 @@
     <t>Cana Weddings</t>
   </si>
   <si>
-    <t>Obour</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -132,30 +118,6 @@
     <t>Sayed Ahmed</t>
   </si>
   <si>
-    <t>https://instagram.com/sarah_events_weddingsplanner?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/jdossevents?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/cana_wedding?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/theaisle_weddings?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/levonyervantjewelry?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/haithamismail0?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/sayed_ahmed_couture?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/amiaevents?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
     <t>آميا للمناسبات</t>
   </si>
   <si>
@@ -186,9 +148,6 @@
     <t>Venue, Event planner</t>
   </si>
   <si>
-    <t>Heliopolis,Tagamo3</t>
-  </si>
-  <si>
     <t>Farahy</t>
   </si>
   <si>
@@ -222,9 +181,6 @@
     <t>Sheikh Zayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheikh Zayed </t>
-  </si>
-  <si>
     <t xml:space="preserve">Occasions </t>
   </si>
   <si>
@@ -240,30 +196,15 @@
     <t>Ahmed Fathy</t>
   </si>
   <si>
-    <t xml:space="preserve">https://instagram.com/occasionseventplanner?igshid=YmMyMTA2M2Y=  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/profile.php?id=100069350086433  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Royal Club Mohamed Ali </t>
   </si>
   <si>
-    <t xml:space="preserve">https://instagram.com/royalclubmohamedaly?igshid=YmMyMTA2M2Y= </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Available </t>
-  </si>
-  <si>
     <t xml:space="preserve">Space Wedding Planner </t>
   </si>
   <si>
     <t xml:space="preserve">سبيس </t>
   </si>
   <si>
-    <t xml:space="preserve">https://instagram.com/spaceweddingplanner?igshid=YmMyMTA2M2Y= </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yasmine </t>
   </si>
   <si>
@@ -288,21 +229,6 @@
     <t>سيفن سكاي</t>
   </si>
   <si>
-    <t>Mansoura</t>
-  </si>
-  <si>
-    <t>Armed Forces Officers Club, Nile Corniche, Talkha</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/7sky.venue</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FairmontRio.venue</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Laylati.Hall</t>
-  </si>
-  <si>
     <t>Rose Package</t>
   </si>
   <si>
@@ -418,12 +344,6 @@
   </si>
   <si>
     <t>خطوبة أو فرح  لعدد ١٥٠ فرد فرش وديكورات فقط</t>
-  </si>
-  <si>
-    <t>Mohandeseen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خط 10 – جمعية أحمد عرابي خارج البوابات – بعد بوابة 6 - أمام مسجد عباد الرحمن – بالقرب من كارفور العبور</t>
   </si>
   <si>
     <t>Yasmine</t>
@@ -587,12 +507,6 @@
     <t>Area Id</t>
   </si>
   <si>
-    <t>Sub category name</t>
-  </si>
-  <si>
-    <t>Sub category Id</t>
-  </si>
-  <si>
     <t>Al Beheira</t>
   </si>
   <si>
@@ -1785,13 +1699,91 @@
   </si>
   <si>
     <t>Umm Khinan</t>
+  </si>
+  <si>
+    <t>Package Details En</t>
+  </si>
+  <si>
+    <t>Branch Name Ar</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ProviderNameEn</t>
+  </si>
+  <si>
+    <t>Branch Name En</t>
+  </si>
+  <si>
+    <t>Provider Branch Id(Need to be discussed)</t>
+  </si>
+  <si>
+    <t>Slogan Ar</t>
+  </si>
+  <si>
+    <t>Slogan En</t>
+  </si>
+  <si>
+    <t>Map Url</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>l.png |   alalal.png | kmkmkm.png</t>
+  </si>
+  <si>
+    <t>bgb</t>
+  </si>
+  <si>
+    <t>للاللا</t>
+  </si>
+  <si>
+    <t>category name</t>
+  </si>
+  <si>
+    <t>category Id</t>
+  </si>
+  <si>
+    <t>Event planner|Glam</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>3055162|30261111</t>
+  </si>
+  <si>
+    <t>201004650264|01276222569</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>kmkmkm.png|jnjnjn.png|sxjnjsnjn.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,8 +1904,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1935,6 +1934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,13 +1986,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1995,14 +1999,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
@@ -2030,7 +2027,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2040,7 +2036,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
@@ -2059,6 +2054,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2368,26 +2402,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2398,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2411,19 +2445,17 @@
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="75" customWidth="1"/>
-    <col min="8" max="8" width="55.44140625" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="10" max="10" width="58.77734375" customWidth="1"/>
-    <col min="11" max="12" width="94.6640625" customWidth="1"/>
-    <col min="13" max="13" width="74.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" customWidth="1"/>
-    <col min="16" max="16" width="26.21875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="52.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.109375" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="13" max="13" width="26.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2431,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -2440,970 +2472,572 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>558</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="15">
+        <v>30000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H2" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15">
+        <v>25000</v>
+      </c>
+      <c r="I3" s="12">
+        <v>201145993944</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" t="s">
+        <v>560</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15">
+        <v>45000</v>
+      </c>
+      <c r="I4" s="12">
+        <v>201204854104</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15">
+        <v>18000</v>
+      </c>
+      <c r="I5" s="12">
+        <v>201005358338</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="O5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="12">
+        <v>201017922992</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="O6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="13">
+        <v>201223346216</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15">
+        <v>18000</v>
+      </c>
+      <c r="I8" s="12">
+        <v>201552912660</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15">
+        <v>20000</v>
+      </c>
+      <c r="I9" s="12">
+        <v>201007078440</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15">
+        <v>40000</v>
+      </c>
+      <c r="I10" s="12">
+        <v>201006960049</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="12">
+        <v>201222113681</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="12">
+        <v>201003389743</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="12">
+        <v>201002512009</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15">
         <v>30000</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="16">
-        <v>201004650264</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I14" s="12">
+        <v>201121425989</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="19">
-        <v>25000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="16">
-        <v>201145993944</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="19">
-        <v>45000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="16">
-        <v>201204854104</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="19">
-        <v>18000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="16">
-        <v>201005358338</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D15" s="15">
+        <v>35000</v>
+      </c>
+      <c r="I15" s="12">
+        <v>201007070173</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15">
+        <v>50000</v>
+      </c>
+      <c r="I16" s="12">
+        <v>201092000495</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="15">
         <v>30000</v>
       </c>
-      <c r="G6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="16">
-        <v>201017922992</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="17">
-        <v>201223346216</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19">
-        <v>18000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="16">
-        <v>201552912660</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="19">
-        <v>20000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="16">
-        <v>201007078440</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="19">
-        <v>40000</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="16">
-        <v>201006960049</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="16">
-        <v>201222113681</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19">
-        <v>50000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="16">
-        <v>201003389743</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="16">
-        <v>201002512009</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="19">
-        <v>30000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="16">
-        <v>201121425989</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="19">
-        <v>35000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="16">
-        <v>201007070173</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="19">
-        <v>50000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="16">
+      <c r="I17" s="12">
         <v>201092000495</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="19">
-        <v>30000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="16">
-        <v>201092000495</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-    <hyperlink ref="M4" r:id="rId2"/>
-    <hyperlink ref="M5" r:id="rId3"/>
-    <hyperlink ref="M6" r:id="rId4"/>
-    <hyperlink ref="M7" r:id="rId5"/>
-    <hyperlink ref="M8" r:id="rId6"/>
-    <hyperlink ref="M9" r:id="rId7"/>
-    <hyperlink ref="M2" r:id="rId8"/>
-    <hyperlink ref="M12" r:id="rId9"/>
-    <hyperlink ref="M10" r:id="rId10"/>
-    <hyperlink ref="M11" r:id="rId11"/>
-    <hyperlink ref="M14" r:id="rId12"/>
-    <hyperlink ref="M15" r:id="rId13"/>
-    <hyperlink ref="M16" r:id="rId14"/>
-    <hyperlink ref="M17" r:id="rId15"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="11">
-        <v>18000</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="11">
-        <v>30000</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11">
-        <v>36000</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11">
-        <v>48000</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11">
-        <v>37000</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11">
-        <v>65000</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="11">
-        <v>80000</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11">
-        <v>30000</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="11">
-        <v>40000</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11">
-        <v>50000</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,3402 +3046,3824 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="41">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="43">
+        <v>18000</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="8">
+        <v>36000</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="8">
+        <v>48000</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="8">
+        <v>37000</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="8">
+        <v>65000</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="8">
+        <v>80000</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8">
+        <v>30000</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8">
+        <v>40000</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="33"/>
+    <col min="5" max="5" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="26">
+        <v>27</v>
+      </c>
+      <c r="D2" s="26">
+        <v>6008</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="26">
+        <v>4</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1014</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="26">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1009</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="26">
+        <v>6</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="26">
+        <v>25</v>
+      </c>
+      <c r="D7" s="26">
+        <v>7010</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="26">
+        <v>21</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1047</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="26">
+        <v>20</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1023</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="26">
+        <v>10</v>
+      </c>
+      <c r="D11" s="26">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26">
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C13" s="26">
+        <v>19</v>
+      </c>
+      <c r="D13" s="26">
+        <v>18006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C14" s="26">
+        <v>7</v>
+      </c>
+      <c r="D14" s="26">
+        <v>13001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B15" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="C15" s="26">
+        <v>13</v>
+      </c>
+      <c r="D15" s="26">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="B16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="C16" s="26">
+        <v>11</v>
+      </c>
+      <c r="D16" s="26">
+        <v>7059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B17" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="32">
-        <v>27</v>
-      </c>
-      <c r="D2" s="32">
-        <v>6008</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C17" s="26">
+        <v>24</v>
+      </c>
+      <c r="D17" s="26">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="26">
+        <v>16</v>
+      </c>
+      <c r="D18" s="26">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="26">
+        <v>18</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="26">
+        <v>8</v>
+      </c>
+      <c r="D20" s="26">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="26">
+        <v>9</v>
+      </c>
+      <c r="D21" s="26">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="26">
+        <v>12</v>
+      </c>
+      <c r="D22" s="26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="26">
+        <v>15</v>
+      </c>
+      <c r="D23" s="26">
+        <v>25010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="26">
         <v>23</v>
       </c>
-      <c r="F2" s="33">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="32">
-        <v>4</v>
-      </c>
-      <c r="D3" s="32">
-        <v>1014</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="32">
-        <v>5</v>
-      </c>
-      <c r="D4" s="32">
-        <v>1009</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="33">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="32">
-        <v>6</v>
-      </c>
-      <c r="D5" s="32">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="32">
-        <v>2</v>
-      </c>
-      <c r="D6" s="32">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="32">
-        <v>25</v>
-      </c>
-      <c r="D7" s="32">
-        <v>7010</v>
-      </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="32">
-        <v>21</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1047</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="32">
-        <v>20</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1023</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="D24" s="26">
+        <v>13003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B25" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="32">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="C25" s="26">
+        <v>17</v>
+      </c>
+      <c r="D25" s="26">
+        <v>23001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B26" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="32">
-        <v>10</v>
-      </c>
-      <c r="D11" s="32">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="C26" s="26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="26">
+        <v>15010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B27" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="32">
-        <v>3</v>
-      </c>
-      <c r="D12" s="32">
-        <v>21007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="C27" s="26">
+        <v>26</v>
+      </c>
+      <c r="D27" s="26">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B28" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="32">
-        <v>19</v>
-      </c>
-      <c r="D13" s="32">
-        <v>18006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C28" s="26">
+        <v>14</v>
+      </c>
+      <c r="D28" s="26">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="32">
-        <v>7</v>
-      </c>
-      <c r="D14" s="32">
-        <v>13001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="32">
-        <v>13</v>
-      </c>
-      <c r="D15" s="32">
-        <v>7018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="32">
-        <v>11</v>
-      </c>
-      <c r="D16" s="32">
-        <v>7059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="32">
-        <v>24</v>
-      </c>
-      <c r="D17" s="32">
-        <v>21013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="32">
-        <v>16</v>
-      </c>
-      <c r="D18" s="32">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="32">
-        <v>18</v>
-      </c>
-      <c r="D19" s="32">
-        <v>6009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="32">
-        <v>8</v>
-      </c>
-      <c r="D20" s="32">
-        <v>7027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="32">
-        <v>9</v>
-      </c>
-      <c r="D21" s="32">
-        <v>6015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="32">
-        <v>12</v>
-      </c>
-      <c r="D22" s="32">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="32">
-        <v>15</v>
-      </c>
-      <c r="D23" s="32">
-        <v>25010</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="32">
-        <v>23</v>
-      </c>
-      <c r="D24" s="32">
-        <v>13003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="32">
-        <v>17</v>
-      </c>
-      <c r="D25" s="32">
-        <v>23001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="32">
-        <v>22</v>
-      </c>
-      <c r="D26" s="32">
-        <v>15010</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="32">
-        <v>26</v>
-      </c>
-      <c r="D27" s="32">
-        <v>7030</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="32">
-        <v>14</v>
-      </c>
-      <c r="D28" s="32">
-        <v>7004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26">
         <v>20009</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" s="32">
+        <v>192</v>
+      </c>
+      <c r="D30" s="26">
         <v>14005</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="32">
+        <v>193</v>
+      </c>
+      <c r="D31" s="26">
         <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="32">
+        <v>194</v>
+      </c>
+      <c r="D32" s="26">
         <v>22011</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="32">
+        <v>195</v>
+      </c>
+      <c r="D33" s="26">
         <v>14002</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="32">
+        <v>196</v>
+      </c>
+      <c r="D34" s="26">
         <v>2014</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="32">
+        <v>197</v>
+      </c>
+      <c r="D35" s="26">
         <v>9001</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="32">
+        <v>198</v>
+      </c>
+      <c r="D36" s="26">
         <v>1042</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="32">
+        <v>199</v>
+      </c>
+      <c r="D37" s="26">
         <v>7083</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="32">
+        <v>200</v>
+      </c>
+      <c r="D38" s="26">
         <v>2009</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="32">
+        <v>201</v>
+      </c>
+      <c r="D39" s="26">
         <v>1057</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="32">
+        <v>202</v>
+      </c>
+      <c r="D40" s="26">
         <v>7023</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="32">
+        <v>203</v>
+      </c>
+      <c r="D41" s="26">
         <v>19013</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="32">
+        <v>140</v>
+      </c>
+      <c r="D42" s="26">
         <v>4009</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="32">
+        <v>204</v>
+      </c>
+      <c r="D43" s="26">
         <v>6005</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="32">
+        <v>205</v>
+      </c>
+      <c r="D44" s="26">
         <v>6007</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="32">
+        <v>206</v>
+      </c>
+      <c r="D45" s="26">
         <v>1059</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="32">
+        <v>207</v>
+      </c>
+      <c r="D46" s="26">
         <v>13005</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="32">
+        <v>208</v>
+      </c>
+      <c r="D47" s="26">
         <v>1007</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="32">
+        <v>209</v>
+      </c>
+      <c r="D48" s="26">
         <v>15013</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="32">
+        <v>210</v>
+      </c>
+      <c r="D49" s="26">
         <v>7084</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="32">
+        <v>211</v>
+      </c>
+      <c r="D50" s="26">
         <v>4002</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>241</v>
-      </c>
-      <c r="D51" s="32">
+        <v>212</v>
+      </c>
+      <c r="D51" s="26">
         <v>7025</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D52" s="32">
+        <v>213</v>
+      </c>
+      <c r="D52" s="26">
         <v>7072</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="32">
+        <v>214</v>
+      </c>
+      <c r="D53" s="26">
         <v>1021</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" s="32">
+        <v>215</v>
+      </c>
+      <c r="D54" s="26">
         <v>26007</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" s="32">
+        <v>216</v>
+      </c>
+      <c r="D55" s="26">
         <v>7053</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>246</v>
-      </c>
-      <c r="D56" s="32">
+        <v>217</v>
+      </c>
+      <c r="D56" s="26">
         <v>7055</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="32">
+        <v>142</v>
+      </c>
+      <c r="D57" s="26">
         <v>5001</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" s="32">
+        <v>218</v>
+      </c>
+      <c r="D58" s="26">
         <v>1017</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>248</v>
-      </c>
-      <c r="D59" s="32">
+        <v>219</v>
+      </c>
+      <c r="D59" s="26">
         <v>2029</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="32">
+        <v>220</v>
+      </c>
+      <c r="D60" s="26">
         <v>7066</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" s="32">
+        <v>221</v>
+      </c>
+      <c r="D61" s="26">
         <v>6003</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>251</v>
-      </c>
-      <c r="D62" s="32">
+        <v>222</v>
+      </c>
+      <c r="D62" s="26">
         <v>7024</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="32">
+        <v>223</v>
+      </c>
+      <c r="D63" s="26">
         <v>11010</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="32">
+        <v>224</v>
+      </c>
+      <c r="D64" s="26">
         <v>10008</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>254</v>
-      </c>
-      <c r="D65" s="32">
+        <v>225</v>
+      </c>
+      <c r="D65" s="26">
         <v>25007</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="32">
+        <v>226</v>
+      </c>
+      <c r="D66" s="26">
         <v>7060</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="32">
+        <v>227</v>
+      </c>
+      <c r="D67" s="26">
         <v>1019</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>257</v>
-      </c>
-      <c r="D68" s="32">
+        <v>228</v>
+      </c>
+      <c r="D68" s="26">
         <v>6020</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>258</v>
-      </c>
-      <c r="D69" s="32">
+        <v>229</v>
+      </c>
+      <c r="D69" s="26">
         <v>10006</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="32">
+        <v>230</v>
+      </c>
+      <c r="D70" s="26">
         <v>15020</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="32">
+        <v>144</v>
+      </c>
+      <c r="D71" s="26">
         <v>6001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" s="32">
+        <v>231</v>
+      </c>
+      <c r="D72" s="26">
         <v>2015</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="32">
+        <v>232</v>
+      </c>
+      <c r="D73" s="26">
         <v>7058</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="32">
+        <v>233</v>
+      </c>
+      <c r="D74" s="26">
         <v>23004</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" s="32">
+        <v>234</v>
+      </c>
+      <c r="D75" s="26">
         <v>10005</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="32">
+        <v>235</v>
+      </c>
+      <c r="D76" s="26">
         <v>1030</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>265</v>
-      </c>
-      <c r="D77" s="32">
+        <v>236</v>
+      </c>
+      <c r="D77" s="26">
         <v>26013</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="32">
+        <v>146</v>
+      </c>
+      <c r="D78" s="26">
         <v>2032</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79" s="32">
+        <v>237</v>
+      </c>
+      <c r="D79" s="26">
         <v>1037</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="32">
+        <v>238</v>
+      </c>
+      <c r="D80" s="26">
         <v>4005</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="32">
+        <v>239</v>
+      </c>
+      <c r="D81" s="26">
         <v>1028</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="32">
+        <v>240</v>
+      </c>
+      <c r="D82" s="26">
         <v>7073</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>270</v>
-      </c>
-      <c r="D83" s="32">
+        <v>241</v>
+      </c>
+      <c r="D83" s="26">
         <v>24003</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" s="32">
+        <v>242</v>
+      </c>
+      <c r="D84" s="26">
         <v>24008</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" s="32">
+        <v>243</v>
+      </c>
+      <c r="D85" s="26">
         <v>2024</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>273</v>
-      </c>
-      <c r="D86" s="32">
+        <v>244</v>
+      </c>
+      <c r="D86" s="26">
         <v>5006</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="32">
+        <v>245</v>
+      </c>
+      <c r="D87" s="26">
         <v>21012</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="32">
+        <v>148</v>
+      </c>
+      <c r="D88" s="26">
         <v>25001</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="32">
+        <v>150</v>
+      </c>
+      <c r="D89" s="26">
         <v>21001</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D90" s="32">
+        <v>246</v>
+      </c>
+      <c r="D90" s="26">
         <v>14001</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="32">
+        <v>247</v>
+      </c>
+      <c r="D91" s="26">
         <v>19009</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="32">
+        <v>248</v>
+      </c>
+      <c r="D92" s="26">
         <v>2019</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>278</v>
-      </c>
-      <c r="D93" s="32">
+        <v>249</v>
+      </c>
+      <c r="D93" s="26">
         <v>6012</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>279</v>
-      </c>
-      <c r="D94" s="32">
+        <v>250</v>
+      </c>
+      <c r="D94" s="26">
         <v>2016</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="32">
+        <v>251</v>
+      </c>
+      <c r="D95" s="26">
         <v>1051</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="32">
+        <v>252</v>
+      </c>
+      <c r="D96" s="26">
         <v>7085</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>282</v>
-      </c>
-      <c r="D97" s="32">
+        <v>253</v>
+      </c>
+      <c r="D97" s="26">
         <v>15008</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" s="32">
+        <v>254</v>
+      </c>
+      <c r="D98" s="26">
         <v>11003</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" s="32">
+        <v>255</v>
+      </c>
+      <c r="D99" s="26">
         <v>2026</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="32">
+        <v>256</v>
+      </c>
+      <c r="D100" s="26">
         <v>15007</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>286</v>
-      </c>
-      <c r="D101" s="32">
+        <v>257</v>
+      </c>
+      <c r="D101" s="26">
         <v>7033</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>287</v>
-      </c>
-      <c r="D102" s="32">
+        <v>258</v>
+      </c>
+      <c r="D102" s="26">
         <v>18003</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>288</v>
-      </c>
-      <c r="D103" s="32">
+        <v>259</v>
+      </c>
+      <c r="D103" s="26">
         <v>20001</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>289</v>
-      </c>
-      <c r="D104" s="32">
+        <v>260</v>
+      </c>
+      <c r="D104" s="26">
         <v>22003</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>290</v>
-      </c>
-      <c r="D105" s="32">
+        <v>261</v>
+      </c>
+      <c r="D105" s="26">
         <v>1025</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>291</v>
-      </c>
-      <c r="D106" s="32">
+        <v>262</v>
+      </c>
+      <c r="D106" s="26">
         <v>4003</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>292</v>
-      </c>
-      <c r="D107" s="32">
+        <v>263</v>
+      </c>
+      <c r="D107" s="26">
         <v>20006</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D108" s="32">
+        <v>264</v>
+      </c>
+      <c r="D108" s="26">
         <v>7062</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>294</v>
-      </c>
-      <c r="D109" s="32">
+        <v>265</v>
+      </c>
+      <c r="D109" s="26">
         <v>11009</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>295</v>
-      </c>
-      <c r="D110" s="32">
+        <v>266</v>
+      </c>
+      <c r="D110" s="26">
         <v>6004</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>296</v>
-      </c>
-      <c r="D111" s="32">
+        <v>267</v>
+      </c>
+      <c r="D111" s="26">
         <v>7035</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>297</v>
-      </c>
-      <c r="D112" s="32">
+        <v>268</v>
+      </c>
+      <c r="D112" s="26">
         <v>21015</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>298</v>
-      </c>
-      <c r="D113" s="32">
+        <v>269</v>
+      </c>
+      <c r="D113" s="26">
         <v>7069</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D114" s="32">
+        <v>270</v>
+      </c>
+      <c r="D114" s="26">
         <v>5004</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>300</v>
-      </c>
-      <c r="D115" s="32">
+        <v>271</v>
+      </c>
+      <c r="D115" s="26">
         <v>7064</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>301</v>
-      </c>
-      <c r="D116" s="32">
+        <v>272</v>
+      </c>
+      <c r="D116" s="26">
         <v>2011</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>302</v>
-      </c>
-      <c r="D117" s="32">
+        <v>273</v>
+      </c>
+      <c r="D117" s="26">
         <v>11001</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118" s="32">
+        <v>154</v>
+      </c>
+      <c r="D118" s="26">
         <v>1060</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>303</v>
-      </c>
-      <c r="D119" s="32">
+        <v>274</v>
+      </c>
+      <c r="D119" s="26">
         <v>2003</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>304</v>
-      </c>
-      <c r="D120" s="32">
+        <v>275</v>
+      </c>
+      <c r="D120" s="26">
         <v>1054</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>305</v>
-      </c>
-      <c r="D121" s="32">
+        <v>276</v>
+      </c>
+      <c r="D121" s="26">
         <v>26003</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>306</v>
-      </c>
-      <c r="D122" s="32">
+        <v>277</v>
+      </c>
+      <c r="D122" s="26">
         <v>7016</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>185</v>
-      </c>
-      <c r="D123" s="32">
+        <v>156</v>
+      </c>
+      <c r="D123" s="26">
         <v>10011</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>307</v>
-      </c>
-      <c r="D124" s="32">
+        <v>278</v>
+      </c>
+      <c r="D124" s="26">
         <v>1046</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>308</v>
-      </c>
-      <c r="D125" s="32">
+        <v>279</v>
+      </c>
+      <c r="D125" s="26">
         <v>22007</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>309</v>
-      </c>
-      <c r="D126" s="32">
+        <v>280</v>
+      </c>
+      <c r="D126" s="26">
         <v>6011</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>310</v>
-      </c>
-      <c r="D127" s="32">
+        <v>281</v>
+      </c>
+      <c r="D127" s="26">
         <v>21008</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>311</v>
-      </c>
-      <c r="D128" s="32">
+        <v>282</v>
+      </c>
+      <c r="D128" s="26">
         <v>1001</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D129" s="32">
+        <v>283</v>
+      </c>
+      <c r="D129" s="26">
         <v>7037</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>313</v>
-      </c>
-      <c r="D130" s="32">
+        <v>284</v>
+      </c>
+      <c r="D130" s="26">
         <v>18005</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>314</v>
-      </c>
-      <c r="D131" s="32">
+        <v>285</v>
+      </c>
+      <c r="D131" s="26">
         <v>23005</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>315</v>
-      </c>
-      <c r="D132" s="32">
+        <v>286</v>
+      </c>
+      <c r="D132" s="26">
         <v>11008</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>316</v>
-      </c>
-      <c r="D133" s="32">
+        <v>287</v>
+      </c>
+      <c r="D133" s="26">
         <v>7001</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>317</v>
-      </c>
-      <c r="D134" s="32">
+        <v>288</v>
+      </c>
+      <c r="D134" s="26">
         <v>1010</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>318</v>
-      </c>
-      <c r="D135" s="32">
+        <v>289</v>
+      </c>
+      <c r="D135" s="26">
         <v>25002</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>319</v>
-      </c>
-      <c r="D136" s="32">
+        <v>290</v>
+      </c>
+      <c r="D136" s="26">
         <v>21010</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>320</v>
-      </c>
-      <c r="D137" s="32">
+        <v>291</v>
+      </c>
+      <c r="D137" s="26">
         <v>19007</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>321</v>
-      </c>
-      <c r="D138" s="32">
+        <v>292</v>
+      </c>
+      <c r="D138" s="26">
         <v>7022</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>322</v>
-      </c>
-      <c r="D139" s="32">
+        <v>293</v>
+      </c>
+      <c r="D139" s="26">
         <v>25005</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>323</v>
-      </c>
-      <c r="D140" s="32">
+        <v>294</v>
+      </c>
+      <c r="D140" s="26">
         <v>7019</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>324</v>
-      </c>
-      <c r="D141" s="32">
+        <v>295</v>
+      </c>
+      <c r="D141" s="26">
         <v>19004</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>325</v>
-      </c>
-      <c r="D142" s="32">
+        <v>296</v>
+      </c>
+      <c r="D142" s="26">
         <v>16004</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>326</v>
-      </c>
-      <c r="D143" s="32">
+        <v>297</v>
+      </c>
+      <c r="D143" s="26">
         <v>14004</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>327</v>
-      </c>
-      <c r="D144" s="32">
+        <v>298</v>
+      </c>
+      <c r="D144" s="26">
         <v>21004</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>328</v>
-      </c>
-      <c r="D145" s="32">
+        <v>299</v>
+      </c>
+      <c r="D145" s="26">
         <v>24004</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>329</v>
-      </c>
-      <c r="D146" s="32">
+        <v>300</v>
+      </c>
+      <c r="D146" s="26">
         <v>24009</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>330</v>
-      </c>
-      <c r="D147" s="32">
+        <v>301</v>
+      </c>
+      <c r="D147" s="26">
         <v>2031</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>331</v>
-      </c>
-      <c r="D148" s="32">
+        <v>302</v>
+      </c>
+      <c r="D148" s="26">
         <v>16003</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>332</v>
-      </c>
-      <c r="D149" s="32">
+        <v>303</v>
+      </c>
+      <c r="D149" s="26">
         <v>20005</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>333</v>
-      </c>
-      <c r="D150" s="32">
+        <v>304</v>
+      </c>
+      <c r="D150" s="26">
         <v>7040</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>334</v>
-      </c>
-      <c r="D151" s="32">
+        <v>305</v>
+      </c>
+      <c r="D151" s="26">
         <v>21005</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>335</v>
-      </c>
-      <c r="D152" s="32">
+        <v>306</v>
+      </c>
+      <c r="D152" s="26">
         <v>1041</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>336</v>
-      </c>
-      <c r="D153" s="32">
+        <v>307</v>
+      </c>
+      <c r="D153" s="26">
         <v>26009</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>337</v>
-      </c>
-      <c r="D154" s="32">
+        <v>308</v>
+      </c>
+      <c r="D154" s="26">
         <v>15014</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>338</v>
-      </c>
-      <c r="D155" s="32">
+        <v>309</v>
+      </c>
+      <c r="D155" s="26">
         <v>24006</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>339</v>
-      </c>
-      <c r="D156" s="32">
+        <v>310</v>
+      </c>
+      <c r="D156" s="26">
         <v>22002</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>340</v>
-      </c>
-      <c r="D157" s="32">
+        <v>311</v>
+      </c>
+      <c r="D157" s="26">
         <v>8001</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>341</v>
-      </c>
-      <c r="D158" s="32">
+        <v>312</v>
+      </c>
+      <c r="D158" s="26">
         <v>15011</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>342</v>
-      </c>
-      <c r="D159" s="32">
+        <v>313</v>
+      </c>
+      <c r="D159" s="26">
         <v>25004</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>343</v>
-      </c>
-      <c r="D160" s="32">
+        <v>314</v>
+      </c>
+      <c r="D160" s="26">
         <v>20008</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>344</v>
-      </c>
-      <c r="D161" s="32">
+        <v>315</v>
+      </c>
+      <c r="D161" s="26">
         <v>24005</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>345</v>
-      </c>
-      <c r="D162" s="32">
+        <v>316</v>
+      </c>
+      <c r="D162" s="26">
         <v>24002</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>346</v>
-      </c>
-      <c r="D163" s="32">
+        <v>317</v>
+      </c>
+      <c r="D163" s="26">
         <v>7028</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>347</v>
-      </c>
-      <c r="D164" s="32">
+        <v>318</v>
+      </c>
+      <c r="D164" s="26">
         <v>7029</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>348</v>
-      </c>
-      <c r="D165" s="32">
+        <v>319</v>
+      </c>
+      <c r="D165" s="26">
         <v>1055</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>349</v>
-      </c>
-      <c r="D166" s="32">
+        <v>320</v>
+      </c>
+      <c r="D166" s="26">
         <v>7042</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" s="32">
+        <v>321</v>
+      </c>
+      <c r="D167" s="26">
         <v>1039</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>351</v>
-      </c>
-      <c r="D168" s="32">
+        <v>322</v>
+      </c>
+      <c r="D168" s="26">
         <v>22009</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>352</v>
-      </c>
-      <c r="D169" s="32">
+        <v>323</v>
+      </c>
+      <c r="D169" s="26">
         <v>7026</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>353</v>
-      </c>
-      <c r="D170" s="32">
+        <v>324</v>
+      </c>
+      <c r="D170" s="26">
         <v>15002</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>354</v>
-      </c>
-      <c r="D171" s="32">
+        <v>325</v>
+      </c>
+      <c r="D171" s="26">
         <v>15019</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>355</v>
-      </c>
-      <c r="D172" s="32">
+        <v>326</v>
+      </c>
+      <c r="D172" s="26">
         <v>21014</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>356</v>
-      </c>
-      <c r="D173" s="32">
+        <v>327</v>
+      </c>
+      <c r="D173" s="26">
         <v>25009</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>357</v>
-      </c>
-      <c r="D174" s="32">
+        <v>328</v>
+      </c>
+      <c r="D174" s="26">
         <v>25011</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>358</v>
-      </c>
-      <c r="D175" s="32">
+        <v>329</v>
+      </c>
+      <c r="D175" s="26">
         <v>1032</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>359</v>
-      </c>
-      <c r="D176" s="32">
+        <v>330</v>
+      </c>
+      <c r="D176" s="26">
         <v>7041</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>360</v>
-      </c>
-      <c r="D177" s="32">
+        <v>331</v>
+      </c>
+      <c r="D177" s="26">
         <v>1034</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>361</v>
-      </c>
-      <c r="D178" s="32">
+        <v>332</v>
+      </c>
+      <c r="D178" s="26">
         <v>13009</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>362</v>
-      </c>
-      <c r="D179" s="32">
+        <v>333</v>
+      </c>
+      <c r="D179" s="26">
         <v>24001</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>363</v>
-      </c>
-      <c r="D180" s="32">
+        <v>334</v>
+      </c>
+      <c r="D180" s="26">
         <v>20003</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>364</v>
-      </c>
-      <c r="D181" s="32">
+        <v>335</v>
+      </c>
+      <c r="D181" s="26">
         <v>2025</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>365</v>
-      </c>
-      <c r="D182" s="32">
+        <v>336</v>
+      </c>
+      <c r="D182" s="26">
         <v>26010</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>366</v>
-      </c>
-      <c r="D183" s="32">
+        <v>337</v>
+      </c>
+      <c r="D183" s="26">
         <v>18007</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>367</v>
-      </c>
-      <c r="D184" s="32">
+        <v>338</v>
+      </c>
+      <c r="D184" s="26">
         <v>22010</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>368</v>
-      </c>
-      <c r="D185" s="32">
+        <v>339</v>
+      </c>
+      <c r="D185" s="26">
         <v>21002</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>369</v>
-      </c>
-      <c r="D186" s="32">
+        <v>340</v>
+      </c>
+      <c r="D186" s="26">
         <v>14003</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>370</v>
-      </c>
-      <c r="D187" s="32">
+        <v>341</v>
+      </c>
+      <c r="D187" s="26">
         <v>22006</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>371</v>
-      </c>
-      <c r="D188" s="32">
+        <v>342</v>
+      </c>
+      <c r="D188" s="26">
         <v>13006</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>372</v>
-      </c>
-      <c r="D189" s="32">
+        <v>343</v>
+      </c>
+      <c r="D189" s="26">
         <v>24007</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>373</v>
-      </c>
-      <c r="D190" s="32">
+        <v>344</v>
+      </c>
+      <c r="D190" s="26">
         <v>7012</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>374</v>
-      </c>
-      <c r="D191" s="32">
+        <v>345</v>
+      </c>
+      <c r="D191" s="26">
         <v>10007</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>375</v>
-      </c>
-      <c r="D192" s="32">
+        <v>346</v>
+      </c>
+      <c r="D192" s="26">
         <v>1026</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>376</v>
-      </c>
-      <c r="D193" s="32">
+        <v>347</v>
+      </c>
+      <c r="D193" s="26">
         <v>1012</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>377</v>
-      </c>
-      <c r="D194" s="32">
+        <v>348</v>
+      </c>
+      <c r="D194" s="26">
         <v>7061</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>378</v>
-      </c>
-      <c r="D195" s="32">
+        <v>349</v>
+      </c>
+      <c r="D195" s="26">
         <v>6019</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>379</v>
-      </c>
-      <c r="D196" s="32">
+        <v>350</v>
+      </c>
+      <c r="D196" s="26">
         <v>10001</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>380</v>
-      </c>
-      <c r="D197" s="32">
+        <v>351</v>
+      </c>
+      <c r="D197" s="26">
         <v>23008</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>381</v>
-      </c>
-      <c r="D198" s="32">
+        <v>352</v>
+      </c>
+      <c r="D198" s="26">
         <v>13002</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>382</v>
-      </c>
-      <c r="D199" s="32">
+        <v>353</v>
+      </c>
+      <c r="D199" s="26">
         <v>11005</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>383</v>
-      </c>
-      <c r="D200" s="32">
+        <v>354</v>
+      </c>
+      <c r="D200" s="26">
         <v>1020</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>384</v>
-      </c>
-      <c r="D201" s="32">
+        <v>355</v>
+      </c>
+      <c r="D201" s="26">
         <v>1045</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>385</v>
-      </c>
-      <c r="D202" s="32">
+        <v>356</v>
+      </c>
+      <c r="D202" s="26">
         <v>22005</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>386</v>
-      </c>
-      <c r="D203" s="32">
+        <v>357</v>
+      </c>
+      <c r="D203" s="26">
         <v>1015</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>387</v>
-      </c>
-      <c r="D204" s="32">
+        <v>358</v>
+      </c>
+      <c r="D204" s="26">
         <v>1049</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>388</v>
-      </c>
-      <c r="D205" s="32">
+        <v>359</v>
+      </c>
+      <c r="D205" s="26">
         <v>22012</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>63</v>
-      </c>
-      <c r="D206" s="32">
+        <v>49</v>
+      </c>
+      <c r="D206" s="26">
         <v>7086</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
-        <v>389</v>
-      </c>
-      <c r="D207" s="32">
+        <v>360</v>
+      </c>
+      <c r="D207" s="26">
         <v>2017</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
-        <v>390</v>
-      </c>
-      <c r="D208" s="32">
+        <v>361</v>
+      </c>
+      <c r="D208" s="26">
         <v>17003</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>391</v>
-      </c>
-      <c r="D209" s="32">
+        <v>362</v>
+      </c>
+      <c r="D209" s="26">
         <v>1053</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>392</v>
-      </c>
-      <c r="D210" s="32">
+        <v>363</v>
+      </c>
+      <c r="D210" s="26">
         <v>1038</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>393</v>
-      </c>
-      <c r="D211" s="32">
+        <v>364</v>
+      </c>
+      <c r="D211" s="26">
         <v>7079</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
-        <v>394</v>
-      </c>
-      <c r="D212" s="32">
+        <v>365</v>
+      </c>
+      <c r="D212" s="26">
         <v>1005</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>395</v>
-      </c>
-      <c r="D213" s="32">
+        <v>366</v>
+      </c>
+      <c r="D213" s="26">
         <v>11007</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>396</v>
-      </c>
-      <c r="D214" s="32">
+        <v>367</v>
+      </c>
+      <c r="D214" s="26">
         <v>7074</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>397</v>
-      </c>
-      <c r="D215" s="32">
+        <v>368</v>
+      </c>
+      <c r="D215" s="26">
         <v>7067</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>398</v>
-      </c>
-      <c r="D216" s="32">
+        <v>369</v>
+      </c>
+      <c r="D216" s="26">
         <v>7071</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>399</v>
-      </c>
-      <c r="D217" s="32">
+        <v>370</v>
+      </c>
+      <c r="D217" s="26">
         <v>6006</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>26</v>
-      </c>
-      <c r="D218" s="32">
+        <v>22</v>
+      </c>
+      <c r="D218" s="26">
         <v>1006</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>400</v>
-      </c>
-      <c r="D219" s="32">
+        <v>371</v>
+      </c>
+      <c r="D219" s="26">
         <v>1040</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>401</v>
-      </c>
-      <c r="D220" s="32">
+        <v>372</v>
+      </c>
+      <c r="D220" s="26">
         <v>1044</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>402</v>
-      </c>
-      <c r="D221" s="32">
+        <v>373</v>
+      </c>
+      <c r="D221" s="26">
         <v>1029</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>403</v>
-      </c>
-      <c r="D222" s="32">
+        <v>374</v>
+      </c>
+      <c r="D222" s="26">
         <v>7014</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>404</v>
-      </c>
-      <c r="D223" s="32">
+        <v>375</v>
+      </c>
+      <c r="D223" s="26">
         <v>17006</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>405</v>
-      </c>
-      <c r="D224" s="32">
+        <v>376</v>
+      </c>
+      <c r="D224" s="26">
         <v>7063</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>406</v>
-      </c>
-      <c r="D225" s="32">
+        <v>377</v>
+      </c>
+      <c r="D225" s="26">
         <v>6016</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>192</v>
-      </c>
-      <c r="D226" s="32">
+        <v>163</v>
+      </c>
+      <c r="D226" s="26">
         <v>13011</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>407</v>
-      </c>
-      <c r="D227" s="32">
+        <v>378</v>
+      </c>
+      <c r="D227" s="26">
         <v>15005</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>408</v>
-      </c>
-      <c r="D228" s="32">
+        <v>379</v>
+      </c>
+      <c r="D228" s="26">
         <v>2006</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>409</v>
-      </c>
-      <c r="D229" s="32">
+        <v>380</v>
+      </c>
+      <c r="D229" s="26">
         <v>4006</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>410</v>
-      </c>
-      <c r="D230" s="32">
+        <v>381</v>
+      </c>
+      <c r="D230" s="26">
         <v>10004</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>411</v>
-      </c>
-      <c r="D231" s="32">
+        <v>382</v>
+      </c>
+      <c r="D231" s="26">
         <v>7017</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>412</v>
-      </c>
-      <c r="D232" s="32">
+        <v>383</v>
+      </c>
+      <c r="D232" s="26">
         <v>11011</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>413</v>
-      </c>
-      <c r="D233" s="32">
+        <v>384</v>
+      </c>
+      <c r="D233" s="26">
         <v>10002</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>414</v>
-      </c>
-      <c r="D234" s="32">
+        <v>385</v>
+      </c>
+      <c r="D234" s="26">
         <v>6017</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>415</v>
-      </c>
-      <c r="D235" s="32">
+        <v>386</v>
+      </c>
+      <c r="D235" s="26">
         <v>15004</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>416</v>
-      </c>
-      <c r="D236" s="32">
+        <v>387</v>
+      </c>
+      <c r="D236" s="26">
         <v>1033</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>417</v>
-      </c>
-      <c r="D237" s="32">
+        <v>388</v>
+      </c>
+      <c r="D237" s="26">
         <v>7077</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>418</v>
-      </c>
-      <c r="D238" s="32">
+        <v>389</v>
+      </c>
+      <c r="D238" s="26">
         <v>2020</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>419</v>
-      </c>
-      <c r="D239" s="32">
+        <v>390</v>
+      </c>
+      <c r="D239" s="26">
         <v>7052</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>420</v>
-      </c>
-      <c r="D240" s="32">
+        <v>391</v>
+      </c>
+      <c r="D240" s="26">
         <v>19010</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>421</v>
-      </c>
-      <c r="D241" s="32">
+        <v>392</v>
+      </c>
+      <c r="D241" s="26">
         <v>7015</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
-        <v>422</v>
-      </c>
-      <c r="D242" s="32">
+        <v>393</v>
+      </c>
+      <c r="D242" s="26">
         <v>25006</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>423</v>
-      </c>
-      <c r="D243" s="32">
+        <v>394</v>
+      </c>
+      <c r="D243" s="26">
         <v>2005</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>196</v>
-      </c>
-      <c r="D244" s="32">
+        <v>167</v>
+      </c>
+      <c r="D244" s="26">
         <v>24010</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>424</v>
-      </c>
-      <c r="D245" s="32">
+        <v>395</v>
+      </c>
+      <c r="D245" s="26">
         <v>1002</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>425</v>
-      </c>
-      <c r="D246" s="32">
+        <v>396</v>
+      </c>
+      <c r="D246" s="26">
         <v>2022</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>426</v>
-      </c>
-      <c r="D247" s="32">
+        <v>397</v>
+      </c>
+      <c r="D247" s="26">
         <v>1031</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>427</v>
-      </c>
-      <c r="D248" s="32">
+        <v>398</v>
+      </c>
+      <c r="D248" s="26">
         <v>7039</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>428</v>
-      </c>
-      <c r="D249" s="32">
+        <v>399</v>
+      </c>
+      <c r="D249" s="26">
         <v>2030</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>429</v>
-      </c>
-      <c r="D250" s="32">
+        <v>400</v>
+      </c>
+      <c r="D250" s="26">
         <v>18004</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>430</v>
-      </c>
-      <c r="D251" s="32">
+        <v>401</v>
+      </c>
+      <c r="D251" s="26">
         <v>2027</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>431</v>
-      </c>
-      <c r="D252" s="32">
+        <v>402</v>
+      </c>
+      <c r="D252" s="26">
         <v>21006</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>432</v>
-      </c>
-      <c r="D253" s="32">
+        <v>403</v>
+      </c>
+      <c r="D253" s="26">
         <v>7011</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>432</v>
-      </c>
-      <c r="D254" s="32">
+        <v>403</v>
+      </c>
+      <c r="D254" s="26">
         <v>7078</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>433</v>
-      </c>
-      <c r="D255" s="32">
+        <v>404</v>
+      </c>
+      <c r="D255" s="26">
         <v>1008</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>434</v>
-      </c>
-      <c r="D256" s="32">
+        <v>405</v>
+      </c>
+      <c r="D256" s="26">
         <v>7080</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>435</v>
-      </c>
-      <c r="D257" s="32">
+        <v>406</v>
+      </c>
+      <c r="D257" s="26">
         <v>21003</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>436</v>
-      </c>
-      <c r="D258" s="32">
+        <v>407</v>
+      </c>
+      <c r="D258" s="26">
         <v>19001</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>437</v>
-      </c>
-      <c r="D259" s="32">
+        <v>408</v>
+      </c>
+      <c r="D259" s="26">
         <v>19011</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>438</v>
-      </c>
-      <c r="D260" s="32">
+        <v>409</v>
+      </c>
+      <c r="D260" s="26">
         <v>1013</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>439</v>
-      </c>
-      <c r="D261" s="32">
+        <v>410</v>
+      </c>
+      <c r="D261" s="26">
         <v>2010</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>440</v>
-      </c>
-      <c r="D262" s="32">
+        <v>411</v>
+      </c>
+      <c r="D262" s="26">
         <v>7054</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>441</v>
-      </c>
-      <c r="D263" s="32">
+        <v>412</v>
+      </c>
+      <c r="D263" s="26">
         <v>22008</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>442</v>
-      </c>
-      <c r="D264" s="32">
+        <v>413</v>
+      </c>
+      <c r="D264" s="26">
         <v>25008</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>443</v>
-      </c>
-      <c r="D265" s="32">
+        <v>414</v>
+      </c>
+      <c r="D265" s="26">
         <v>17004</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>444</v>
-      </c>
-      <c r="D266" s="32">
+        <v>415</v>
+      </c>
+      <c r="D266" s="26">
         <v>16005</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>445</v>
-      </c>
-      <c r="D267" s="32">
+        <v>416</v>
+      </c>
+      <c r="D267" s="26">
         <v>1043</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>446</v>
-      </c>
-      <c r="D268" s="32">
+        <v>417</v>
+      </c>
+      <c r="D268" s="26">
         <v>6013</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>447</v>
-      </c>
-      <c r="D269" s="32">
+        <v>418</v>
+      </c>
+      <c r="D269" s="26">
         <v>18008</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>448</v>
-      </c>
-      <c r="D270" s="32">
+        <v>419</v>
+      </c>
+      <c r="D270" s="26">
         <v>16001</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>449</v>
-      </c>
-      <c r="D271" s="32">
+        <v>420</v>
+      </c>
+      <c r="D271" s="26">
         <v>10003</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>450</v>
-      </c>
-      <c r="D272" s="32">
+        <v>421</v>
+      </c>
+      <c r="D272" s="26">
         <v>7036</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>451</v>
-      </c>
-      <c r="D273" s="32">
+        <v>422</v>
+      </c>
+      <c r="D273" s="26">
         <v>15009</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>452</v>
-      </c>
-      <c r="D274" s="32">
+        <v>423</v>
+      </c>
+      <c r="D274" s="26">
         <v>7031</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>453</v>
-      </c>
-      <c r="D275" s="32">
+        <v>424</v>
+      </c>
+      <c r="D275" s="26">
         <v>7044</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>454</v>
-      </c>
-      <c r="D276" s="32">
+        <v>425</v>
+      </c>
+      <c r="D276" s="26">
         <v>6014</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>455</v>
-      </c>
-      <c r="D277" s="32">
+        <v>426</v>
+      </c>
+      <c r="D277" s="26">
         <v>5007</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>456</v>
-      </c>
-      <c r="D278" s="32">
+        <v>427</v>
+      </c>
+      <c r="D278" s="26">
         <v>11002</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>457</v>
-      </c>
-      <c r="D279" s="32">
+        <v>428</v>
+      </c>
+      <c r="D279" s="26">
         <v>18002</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>458</v>
-      </c>
-      <c r="D280" s="32">
+        <v>429</v>
+      </c>
+      <c r="D280" s="26">
         <v>2007</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>200</v>
-      </c>
-      <c r="D281" s="32">
+        <v>171</v>
+      </c>
+      <c r="D281" s="26">
         <v>18001</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>459</v>
-      </c>
-      <c r="D282" s="32">
+        <v>430</v>
+      </c>
+      <c r="D282" s="26">
         <v>1048</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>460</v>
-      </c>
-      <c r="D283" s="32">
+        <v>431</v>
+      </c>
+      <c r="D283" s="26">
         <v>1058</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>461</v>
-      </c>
-      <c r="D284" s="32">
+        <v>432</v>
+      </c>
+      <c r="D284" s="26">
         <v>7003</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>462</v>
-      </c>
-      <c r="D285" s="32">
+        <v>433</v>
+      </c>
+      <c r="D285" s="26">
         <v>26008</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>463</v>
-      </c>
-      <c r="D286" s="32">
+        <v>434</v>
+      </c>
+      <c r="D286" s="26">
         <v>7047</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>464</v>
-      </c>
-      <c r="D287" s="32">
+        <v>435</v>
+      </c>
+      <c r="D287" s="26">
         <v>15016</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>465</v>
-      </c>
-      <c r="D288" s="32">
+        <v>436</v>
+      </c>
+      <c r="D288" s="26">
         <v>2018</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>466</v>
-      </c>
-      <c r="D289" s="32">
+        <v>437</v>
+      </c>
+      <c r="D289" s="26">
         <v>7034</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>467</v>
-      </c>
-      <c r="D290" s="32">
+        <v>438</v>
+      </c>
+      <c r="D290" s="26">
         <v>23007</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>468</v>
-      </c>
-      <c r="D291" s="32">
+        <v>439</v>
+      </c>
+      <c r="D291" s="26">
         <v>7057</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>469</v>
-      </c>
-      <c r="D292" s="32">
+        <v>440</v>
+      </c>
+      <c r="D292" s="26">
         <v>23003</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>470</v>
-      </c>
-      <c r="D293" s="32">
+        <v>441</v>
+      </c>
+      <c r="D293" s="26">
         <v>20007</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>24</v>
-      </c>
-      <c r="D294" s="32">
+        <v>20</v>
+      </c>
+      <c r="D294" s="26">
         <v>1003</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>471</v>
-      </c>
-      <c r="D295" s="32">
+        <v>442</v>
+      </c>
+      <c r="D295" s="26">
         <v>25003</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>472</v>
-      </c>
-      <c r="D296" s="32">
+        <v>443</v>
+      </c>
+      <c r="D296" s="26">
         <v>20002</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>473</v>
-      </c>
-      <c r="D297" s="32">
+        <v>444</v>
+      </c>
+      <c r="D297" s="26">
         <v>7006</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>474</v>
-      </c>
-      <c r="D298" s="32">
+        <v>445</v>
+      </c>
+      <c r="D298" s="26">
         <v>10010</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>475</v>
-      </c>
-      <c r="D299" s="32">
+        <v>446</v>
+      </c>
+      <c r="D299" s="26">
         <v>1050</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>476</v>
-      </c>
-      <c r="D300" s="32">
+        <v>447</v>
+      </c>
+      <c r="D300" s="26">
         <v>19012</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>477</v>
-      </c>
-      <c r="D301" s="32">
+        <v>448</v>
+      </c>
+      <c r="D301" s="26">
         <v>1018</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>478</v>
-      </c>
-      <c r="D302" s="32">
+        <v>449</v>
+      </c>
+      <c r="D302" s="26">
         <v>1056</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>202</v>
-      </c>
-      <c r="D303" s="32">
+        <v>173</v>
+      </c>
+      <c r="D303" s="26">
         <v>8002</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>479</v>
-      </c>
-      <c r="D304" s="32">
+        <v>450</v>
+      </c>
+      <c r="D304" s="26">
         <v>26004</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>480</v>
-      </c>
-      <c r="D305" s="32">
+        <v>451</v>
+      </c>
+      <c r="D305" s="26">
         <v>13008</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
-        <v>204</v>
-      </c>
-      <c r="D306" s="32">
+        <v>175</v>
+      </c>
+      <c r="D306" s="26">
         <v>9002</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>481</v>
-      </c>
-      <c r="D307" s="32">
+        <v>452</v>
+      </c>
+      <c r="D307" s="26">
         <v>15006</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>482</v>
-      </c>
-      <c r="D308" s="32">
+        <v>453</v>
+      </c>
+      <c r="D308" s="26">
         <v>7082</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>483</v>
-      </c>
-      <c r="D309" s="32">
+        <v>454</v>
+      </c>
+      <c r="D309" s="26">
         <v>15015</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>484</v>
-      </c>
-      <c r="D310" s="32">
+        <v>455</v>
+      </c>
+      <c r="D310" s="26">
         <v>12003</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>206</v>
-      </c>
-      <c r="D311" s="32">
+        <v>177</v>
+      </c>
+      <c r="D311" s="26">
         <v>12004</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>485</v>
-      </c>
-      <c r="D312" s="32">
+        <v>456</v>
+      </c>
+      <c r="D312" s="26">
         <v>15017</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>486</v>
-      </c>
-      <c r="D313" s="32">
+        <v>457</v>
+      </c>
+      <c r="D313" s="26">
         <v>15018</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>208</v>
-      </c>
-      <c r="D314" s="32">
+        <v>179</v>
+      </c>
+      <c r="D314" s="26">
         <v>15021</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>487</v>
-      </c>
-      <c r="D315" s="32">
+        <v>458</v>
+      </c>
+      <c r="D315" s="26">
         <v>6002</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>488</v>
-      </c>
-      <c r="D316" s="32">
+        <v>459</v>
+      </c>
+      <c r="D316" s="26">
         <v>13007</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>489</v>
-      </c>
-      <c r="D317" s="32">
+        <v>460</v>
+      </c>
+      <c r="D317" s="26">
         <v>13004</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>490</v>
-      </c>
-      <c r="D318" s="32">
+        <v>461</v>
+      </c>
+      <c r="D318" s="26">
         <v>23002</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>491</v>
-      </c>
-      <c r="D319" s="32">
+        <v>462</v>
+      </c>
+      <c r="D319" s="26">
         <v>11004</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>210</v>
-      </c>
-      <c r="D320" s="32">
+        <v>181</v>
+      </c>
+      <c r="D320" s="26">
         <v>23009</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
-        <v>492</v>
-      </c>
-      <c r="D321" s="32">
+        <v>463</v>
+      </c>
+      <c r="D321" s="26">
         <v>7051</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>493</v>
-      </c>
-      <c r="D322" s="32">
+        <v>464</v>
+      </c>
+      <c r="D322" s="26">
         <v>23006</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>494</v>
-      </c>
-      <c r="D323" s="32">
+        <v>465</v>
+      </c>
+      <c r="D323" s="26">
         <v>4004</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>495</v>
-      </c>
-      <c r="D324" s="32">
+        <v>466</v>
+      </c>
+      <c r="D324" s="26">
         <v>17005</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>496</v>
-      </c>
-      <c r="D325" s="32">
+        <v>467</v>
+      </c>
+      <c r="D325" s="26">
         <v>5003</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
-        <v>497</v>
-      </c>
-      <c r="D326" s="32">
+        <v>468</v>
+      </c>
+      <c r="D326" s="26">
         <v>1011</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>498</v>
-      </c>
-      <c r="D327" s="32">
+        <v>469</v>
+      </c>
+      <c r="D327" s="26">
         <v>10009</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>499</v>
-      </c>
-      <c r="D328" s="32">
+        <v>470</v>
+      </c>
+      <c r="D328" s="26">
         <v>17002</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>500</v>
-      </c>
-      <c r="D329" s="32">
+        <v>471</v>
+      </c>
+      <c r="D329" s="26">
         <v>7021</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>212</v>
-      </c>
-      <c r="D330" s="32">
+        <v>183</v>
+      </c>
+      <c r="D330" s="26">
         <v>17007</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
-        <v>501</v>
-      </c>
-      <c r="D331" s="32">
+        <v>472</v>
+      </c>
+      <c r="D331" s="26">
         <v>1004</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>502</v>
-      </c>
-      <c r="D332" s="32">
+        <v>473</v>
+      </c>
+      <c r="D332" s="26">
         <v>1035</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>503</v>
-      </c>
-      <c r="D333" s="32">
+        <v>474</v>
+      </c>
+      <c r="D333" s="26">
         <v>2004</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>504</v>
-      </c>
-      <c r="D334" s="32">
+        <v>475</v>
+      </c>
+      <c r="D334" s="26">
         <v>5008</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>505</v>
-      </c>
-      <c r="D335" s="32">
+        <v>476</v>
+      </c>
+      <c r="D335" s="26">
         <v>17001</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>506</v>
-      </c>
-      <c r="D336" s="32">
+        <v>477</v>
+      </c>
+      <c r="D336" s="26">
         <v>7046</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>507</v>
-      </c>
-      <c r="D337" s="32">
+        <v>478</v>
+      </c>
+      <c r="D337" s="26">
         <v>21009</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>508</v>
-      </c>
-      <c r="D338" s="32">
+        <v>479</v>
+      </c>
+      <c r="D338" s="26">
         <v>26001</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>509</v>
-      </c>
-      <c r="D339" s="32">
+        <v>480</v>
+      </c>
+      <c r="D339" s="26">
         <v>7081</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>510</v>
-      </c>
-      <c r="D340" s="32">
+        <v>481</v>
+      </c>
+      <c r="D340" s="26">
         <v>18009</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>511</v>
-      </c>
-      <c r="D341" s="32">
+        <v>482</v>
+      </c>
+      <c r="D341" s="26">
         <v>4008</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>512</v>
-      </c>
-      <c r="D342" s="32">
+        <v>483</v>
+      </c>
+      <c r="D342" s="26">
         <v>6018</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>513</v>
-      </c>
-      <c r="D343" s="32">
+        <v>484</v>
+      </c>
+      <c r="D343" s="26">
         <v>7007</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>514</v>
-      </c>
-      <c r="D344" s="32">
+        <v>485</v>
+      </c>
+      <c r="D344" s="26">
         <v>19008</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>515</v>
-      </c>
-      <c r="D345" s="32">
+        <v>486</v>
+      </c>
+      <c r="D345" s="26">
         <v>7065</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>516</v>
-      </c>
-      <c r="D346" s="32">
+        <v>487</v>
+      </c>
+      <c r="D346" s="26">
         <v>7070</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>517</v>
-      </c>
-      <c r="D347" s="32">
+        <v>488</v>
+      </c>
+      <c r="D347" s="26">
         <v>1036</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>518</v>
-      </c>
-      <c r="D348" s="32">
+        <v>489</v>
+      </c>
+      <c r="D348" s="26">
         <v>2023</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>519</v>
-      </c>
-      <c r="D349" s="32">
+        <v>490</v>
+      </c>
+      <c r="D349" s="26">
         <v>11006</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>520</v>
-      </c>
-      <c r="D350" s="32">
+        <v>491</v>
+      </c>
+      <c r="D350" s="26">
         <v>21011</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>521</v>
-      </c>
-      <c r="D351" s="32">
+        <v>492</v>
+      </c>
+      <c r="D351" s="26">
         <v>19006</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>522</v>
-      </c>
-      <c r="D352" s="32">
+        <v>493</v>
+      </c>
+      <c r="D352" s="26">
         <v>7056</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>523</v>
-      </c>
-      <c r="D353" s="32">
+        <v>494</v>
+      </c>
+      <c r="D353" s="26">
         <v>26005</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>524</v>
-      </c>
-      <c r="D354" s="32">
+        <v>495</v>
+      </c>
+      <c r="D354" s="26">
         <v>15001</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>525</v>
-      </c>
-      <c r="D355" s="32">
+        <v>496</v>
+      </c>
+      <c r="D355" s="26">
         <v>5002</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>65</v>
-      </c>
-      <c r="D356" s="32">
+        <v>51</v>
+      </c>
+      <c r="D356" s="26">
         <v>7002</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>526</v>
-      </c>
-      <c r="D357" s="32">
+        <v>497</v>
+      </c>
+      <c r="D357" s="26">
         <v>5005</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>527</v>
-      </c>
-      <c r="D358" s="32">
+        <v>498</v>
+      </c>
+      <c r="D358" s="26">
         <v>7048</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>528</v>
-      </c>
-      <c r="D359" s="32">
+        <v>499</v>
+      </c>
+      <c r="D359" s="26">
         <v>15012</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>529</v>
-      </c>
-      <c r="D360" s="32">
+        <v>500</v>
+      </c>
+      <c r="D360" s="26">
         <v>7038</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>530</v>
-      </c>
-      <c r="D361" s="32">
+        <v>501</v>
+      </c>
+      <c r="D361" s="26">
         <v>7020</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>531</v>
-      </c>
-      <c r="D362" s="32">
+        <v>502</v>
+      </c>
+      <c r="D362" s="26">
         <v>16002</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>532</v>
-      </c>
-      <c r="D363" s="32">
+        <v>503</v>
+      </c>
+      <c r="D363" s="26">
         <v>2002</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>533</v>
-      </c>
-      <c r="D364" s="32">
+        <v>504</v>
+      </c>
+      <c r="D364" s="26">
         <v>2001</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>534</v>
-      </c>
-      <c r="D365" s="32">
+        <v>505</v>
+      </c>
+      <c r="D365" s="26">
         <v>7068</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>535</v>
-      </c>
-      <c r="D366" s="32">
+        <v>506</v>
+      </c>
+      <c r="D366" s="26">
         <v>20004</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>536</v>
-      </c>
-      <c r="D367" s="32">
+        <v>507</v>
+      </c>
+      <c r="D367" s="26">
         <v>7008</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>214</v>
-      </c>
-      <c r="D368" s="32">
+        <v>185</v>
+      </c>
+      <c r="D368" s="26">
         <v>22013</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>537</v>
-      </c>
-      <c r="D369" s="32">
+        <v>508</v>
+      </c>
+      <c r="D369" s="26">
         <v>19005</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>538</v>
-      </c>
-      <c r="D370" s="32">
+        <v>509</v>
+      </c>
+      <c r="D370" s="26">
         <v>12002</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>539</v>
-      </c>
-      <c r="D371" s="32">
+        <v>510</v>
+      </c>
+      <c r="D371" s="26">
         <v>2008</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>540</v>
-      </c>
-      <c r="D372" s="32">
+        <v>511</v>
+      </c>
+      <c r="D372" s="26">
         <v>13010</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>541</v>
-      </c>
-      <c r="D373" s="32">
+        <v>512</v>
+      </c>
+      <c r="D373" s="26">
         <v>2028</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>218</v>
-      </c>
-      <c r="D374" s="32">
+        <v>189</v>
+      </c>
+      <c r="D374" s="26">
         <v>14006</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>542</v>
-      </c>
-      <c r="D375" s="32">
+        <v>513</v>
+      </c>
+      <c r="D375" s="26">
         <v>26002</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>543</v>
-      </c>
-      <c r="D376" s="32">
+        <v>514</v>
+      </c>
+      <c r="D376" s="26">
         <v>22001</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>544</v>
-      </c>
-      <c r="D377" s="32">
+        <v>515</v>
+      </c>
+      <c r="D377" s="26">
         <v>5009</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>545</v>
-      </c>
-      <c r="D378" s="32">
+        <v>516</v>
+      </c>
+      <c r="D378" s="26">
         <v>7043</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>546</v>
-      </c>
-      <c r="D379" s="32">
+        <v>517</v>
+      </c>
+      <c r="D379" s="26">
         <v>7032</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
-        <v>547</v>
-      </c>
-      <c r="D380" s="32">
+        <v>518</v>
+      </c>
+      <c r="D380" s="26">
         <v>19002</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>548</v>
-      </c>
-      <c r="D381" s="32">
+        <v>519</v>
+      </c>
+      <c r="D381" s="26">
         <v>4001</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>549</v>
-      </c>
-      <c r="D382" s="32">
+        <v>520</v>
+      </c>
+      <c r="D382" s="26">
         <v>22004</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>550</v>
-      </c>
-      <c r="D383" s="32">
+        <v>521</v>
+      </c>
+      <c r="D383" s="26">
         <v>7076</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>551</v>
-      </c>
-      <c r="D384" s="32">
+        <v>522</v>
+      </c>
+      <c r="D384" s="26">
         <v>15003</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>552</v>
-      </c>
-      <c r="D385" s="32">
+        <v>523</v>
+      </c>
+      <c r="D385" s="26">
         <v>26006</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
-        <v>553</v>
-      </c>
-      <c r="D386" s="32">
+        <v>524</v>
+      </c>
+      <c r="D386" s="26">
         <v>7013</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>554</v>
-      </c>
-      <c r="D387" s="32">
+        <v>525</v>
+      </c>
+      <c r="D387" s="26">
         <v>7075</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
-        <v>555</v>
-      </c>
-      <c r="D388" s="32">
+        <v>526</v>
+      </c>
+      <c r="D388" s="26">
         <v>19003</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>556</v>
-      </c>
-      <c r="D389" s="32">
+        <v>527</v>
+      </c>
+      <c r="D389" s="26">
         <v>26014</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>557</v>
-      </c>
-      <c r="D390" s="32">
+        <v>528</v>
+      </c>
+      <c r="D390" s="26">
         <v>6010</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>64</v>
-      </c>
-      <c r="D391" s="32">
+        <v>50</v>
+      </c>
+      <c r="D391" s="26">
         <v>1052</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>558</v>
-      </c>
-      <c r="D392" s="32">
+        <v>529</v>
+      </c>
+      <c r="D392" s="26">
         <v>26011</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>559</v>
-      </c>
-      <c r="D393" s="32">
+        <v>530</v>
+      </c>
+      <c r="D393" s="26">
         <v>4007</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
-        <v>560</v>
-      </c>
-      <c r="D394" s="32">
+        <v>531</v>
+      </c>
+      <c r="D394" s="26">
         <v>2012</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>561</v>
-      </c>
-      <c r="D395" s="32">
+        <v>532</v>
+      </c>
+      <c r="D395" s="26">
         <v>12001</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B396" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="D396" s="32">
+      <c r="B396" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="D396" s="26">
         <v>26022</v>
       </c>
     </row>
     <row r="397" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B397" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="D397" s="32">
+      <c r="B397" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="D397" s="26">
         <v>26021</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B398" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="D398" s="32">
+      <c r="B398" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="D398" s="26">
         <v>26023</v>
       </c>
     </row>
